--- a/Resources/resources.xlsx
+++ b/Resources/resources.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roumo\Desktop\WaterLevel\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DC319E-C980-4D9C-BA2C-29FC859708EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Status</t>
   </si>
@@ -55,24 +61,62 @@
     <t>https://agupubs.onlinelibrary.wiley.com/doi/pdfdirect/10.1002/2015WR018457</t>
   </si>
   <si>
-    <t>Table 2 Glacial Mass Change</t>
-  </si>
-  <si>
     <t>https://www.cambridge.org/core/services/aop-cambridge-core/content/view/D712B6C4E0BECD1443E70A8D1FD28030/S0022143020000325a.pdf/glacier-mass-and-area-changes-on-the-kenai-peninsula-alaska-19862016.pdf</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Glacial Mass Change Declining from 1986 to 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2 , Table 3 , 4.2 </t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Explore Properly and Highlight Important Topics</t>
+  </si>
+  <si>
+    <t>Table 3, Table 4 , Table 5 , Regions Also mentioned</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdfdirect/10.1002/2016WR020033</t>
+  </si>
+  <si>
+    <t>Hydrological Imapct</t>
+  </si>
+  <si>
+    <t>Imp Explore Properly</t>
+  </si>
+  <si>
+    <t>Abstract , Intro 2nd , 3rd , 5th Para ,2 , 3.2.3 , 3.2.4 , Figure 2 , 4.2 , 4.3 , 4.4 ,Figure 5 , 5 ,6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -83,27 +127,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -127,63 +205,116 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -194,10 +325,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -235,71 +366,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -327,7 +458,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -350,11 +481,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -363,13 +494,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -379,7 +510,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -388,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -397,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -405,10 +536,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -473,238 +604,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="71.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.7109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5" customFormat="1" s="7">
-      <c r="A4" s="8" t="s">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E8" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="10" t="s">
+    <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="60">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="13"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E8">
+    <sortCondition ref="A4:A8"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{BC50219D-9E80-4023-A633-8D58D74D9F3C}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{C38D0C67-36DB-43B0-BC7D-AF14FF365813}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{ADD9FD9B-F894-46C9-8F95-492ED0BF8EA1}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{36471E5F-B09E-4630-A1B7-65B46B4917A1}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{0EDA6CE2-F2F7-4252-AF6D-80D11066C56A}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{B732F5EC-3CE7-4F33-9FFB-66DF58B325FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Resources/resources.xlsx
+++ b/Resources/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roumo\Desktop\WaterLevel\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DC319E-C980-4D9C-BA2C-29FC859708EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE7983E-F04A-4CC9-A930-1BA58F1464E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/resources.xlsx
+++ b/Resources/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roumo\Desktop\WaterLevel\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE7983E-F04A-4CC9-A930-1BA58F1464E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F828784-6C3F-4541-9BD6-2B0C8CF65DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Status</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Abstract , Intro 2nd , 3rd , 5th Para ,2 , 3.2.3 , 3.2.4 , Figure 2 , 4.2 , 4.3 , 4.4 ,Figure 5 , 5 ,6</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/epdf/10.1029/2022JF006599</t>
+  </si>
+  <si>
+    <t>Natural Fcators over the past years and quantifying the mass change</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -232,14 +238,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -255,11 +334,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -290,16 +367,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,126 +714,124 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.7109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -740,204 +842,194 @@
       <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
+    <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="13"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E8">
@@ -950,8 +1042,9 @@
     <hyperlink ref="E7" r:id="rId4" xr:uid="{36471E5F-B09E-4630-A1B7-65B46B4917A1}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{0EDA6CE2-F2F7-4252-AF6D-80D11066C56A}"/>
     <hyperlink ref="E9" r:id="rId6" xr:uid="{B732F5EC-3CE7-4F33-9FFB-66DF58B325FC}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{0ACF09B1-AEC6-4032-96C5-0A2F054C6AB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Resources/resources.xlsx
+++ b/Resources/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roumo\Desktop\WaterLevel\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F828784-6C3F-4541-9BD6-2B0C8CF65DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45588DC4-29E9-4F42-966C-BC5E8120E40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Status</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Rejected</t>
-  </si>
-  <si>
-    <t>Explore Properly and Highlight Important Topics</t>
   </si>
   <si>
     <t>Table 3, Table 4 , Table 5 , Regions Also mentioned</t>
@@ -163,12 +160,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -176,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +352,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -400,10 +394,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,13 +711,13 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.7109375" style="11" bestFit="1" customWidth="1"/>
@@ -733,10 +730,10 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -756,10 +753,10 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -773,10 +770,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -788,10 +785,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -805,28 +802,28 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>20</v>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
@@ -836,89 +833,89 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>7</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="21" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="10"/>

--- a/Resources/resources.xlsx
+++ b/Resources/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roumo\Desktop\WaterLevel\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45588DC4-29E9-4F42-966C-BC5E8120E40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F9D29-C945-4B57-B5AB-741D59C50F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/resources.xlsx
+++ b/Resources/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roumo\Desktop\WaterLevel\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F9D29-C945-4B57-B5AB-741D59C50F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A96059-E870-4B00-AAF6-E5DDFF31C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="5085" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,8 +711,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/resources.xlsx
+++ b/Resources/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roumo\Desktop\WaterLevel\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A96059-E870-4B00-AAF6-E5DDFF31C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F814DAC-3A28-416E-8375-F90BA0708BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="5085" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Status</t>
   </si>
@@ -101,6 +101,33 @@
   </si>
   <si>
     <t>Natural Fcators over the past years and quantifying the mass change</t>
+  </si>
+  <si>
+    <t>https://www.antarcticglaciers.org/glaciers-and-climate/glacier-recession/changing-alaska/</t>
+  </si>
+  <si>
+    <t>Facts</t>
+  </si>
+  <si>
+    <t>https://www.gi.alaska.edu/alaska-science-forum/alaska-continues-change-fast?utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>Sea Level Change</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/climate-indicators/climate-change-indicators-glaciers</t>
+  </si>
+  <si>
+    <t>Alska Glaciar Change</t>
+  </si>
+  <si>
+    <t>Bareen, F., Gupta, S., Kundu, T., Kundu, R., &amp; Pathak, L. K. (2024, June). Enhanced Disaster Forecasting Through Machine Learning, Weather Data, and Remote Sensing. In 2024 IEEE Students Conference on Engineering and Systems (SCES) (pp. 1-6). IEEE.</t>
+  </si>
+  <si>
+    <t>Kundu, R., Gupta, S., Dehury, M. K., Kundu, T., Narayan, M., &amp; Mohapatra, A. K. (2024, July). Image-Based Dimension Extraction of Flowers' and Classification with SFFFP Neural Network. In 2024 2nd International Conference on Sustainable Computing and Smart Systems (ICSCSS) (pp. 1298-1303). IEEE.</t>
+  </si>
+  <si>
+    <t>Gupta, S., Kundu, R., Deo, A. K. A., Patnaik, M., Kundu, T., &amp; Dehury, M. K. (2024, June). Enhancing Transparency and Mitigating Bias in Large Language Models' Responses with Sophistication. In 2024 IEEE International Conference on Information Technology, Electronics and Intelligent Communication Systems (ICITEICS) (pp. 1-6). IEEE.</t>
   </si>
 </sst>
 </file>
@@ -711,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,47 +891,83 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
+    <row r="11" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="5"/>
+      <c r="E11" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="5"/>
+      <c r="E12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="E13" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="E15" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>13</v>
+      </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -1040,8 +1103,11 @@
     <hyperlink ref="E8" r:id="rId5" xr:uid="{0EDA6CE2-F2F7-4252-AF6D-80D11066C56A}"/>
     <hyperlink ref="E9" r:id="rId6" xr:uid="{B732F5EC-3CE7-4F33-9FFB-66DF58B325FC}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{0ACF09B1-AEC6-4032-96C5-0A2F054C6AB0}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{DD141477-6242-454B-A1C7-E08009600956}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{0848881D-46DF-4FA3-BA98-B30B77DBC8E7}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{F6C39C69-2784-4F59-9F01-2E85B93B9123}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>